--- a/scripts/Schedule for FEC201.xlsx
+++ b/scripts/Schedule for FEC201.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,9 +426,9 @@
         <v>Total Hours</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" t="str">
-        <v>2025-01-22</v>
+        <v>2025-01-13</v>
       </c>
       <c r="B2" t="str">
         <v/>
@@ -442,11 +442,8 @@
       <c r="E2" t="str">
         <v>Differential Equations of First Order and First Degree</v>
       </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">1.1 Exact differential Equations, Equations reducible to exact form by using four
-rules of integrating factors.
-1.2 Linear differential equations (Review), equation reducible to linear form,
-Bernoulli’s equation</v>
+      <c r="F2" t="str">
+        <v>1.1 Exact differential Equations</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -454,7 +451,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-01-23</v>
+        <v>2025-01-14</v>
       </c>
       <c r="B3" t="str">
         <v/>
@@ -469,22 +466,873 @@
         <v>Differential Equations of First Order and First Degree</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>1.1 Equations reducible to exact form by using four rules of integrating factors</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-01-16</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Differential Equations of First Order and First Degree</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1.2 Linear differential equations (Review)</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-01-20</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Differential Equations of First Order and First Degree</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1.2 equation reducible to linear form</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-01-21</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Differential Equations of First Order and First Degree</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1.2 Bernoulli’s equation</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-01-23</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Higher Order Linear Differential Equations with Constant Coefficients and Variable Coefficients:</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2.1 Linear Differential Equation with constant coefficient: complementary function</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-01-27</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Higher Order Linear Differential Equations with Constant Coefficients and Variable Coefficients:</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2.1 particular integrals of differential equation of the type f(D)y = X, where X is 𝑒 𝑎𝑥 , 𝑠𝑖𝑛(𝑎𝑥 + 𝑏), 𝑐𝑜𝑠(𝑎𝑥 + 𝑏)</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-01-28</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Higher Order Linear Differential Equations with Constant Coefficients and Variable Coefficients:</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2.1 particular integrals of differential equation of the type f(D)y = X, where X is 𝑥 𝑚 ,𝑒 𝑎𝑥 ⋅ V</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025-01-30</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Higher Order Linear Differential Equations with Constant Coefficients and Variable Coefficients:</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2.2 Method of variation of parameters</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-02-03</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Higher Order Linear Differential Equations with Constant Coefficients and Variable Coefficients:</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2.2 Method of variation of parameters</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025-02-04</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Higher Order Linear Differential Equations with Constant Coefficients and Variable Coefficients:</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2.2 Method of variation of parameters</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-02-06</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Higher Order Linear Differential Equations with Constant Coefficients and Variable Coefficients:</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2.2 Method of variation of parameters</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-02-10</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3.1 Beta and Gamma functions and its properties.</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-02-11</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3.1 Beta and Gamma functions and its properties.</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-02-13</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F16" t="str">
+        <v>3.1 Differentiation under integral sign with constant limits of integration.</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025-02-17</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F17" t="str">
+        <v>3.1 Differentiation under integral sign with constant limits of integration.</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025-02-18</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F18" t="str">
+        <v>3.2 Rectification of plane curves in Cartesian form.</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025-02-20</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F19" t="str">
+        <v>3.2 Rectification of plane curves in Cartesian form.</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025-02-24</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3.2 Rectification of curve in Polar forms.</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025-02-27</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F21" t="str">
+        <v>3.2 Rectification of curve in Polar forms.</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025-03-03</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F22" t="str">
+        <v>3.2 Rectification of curve in Polar forms.</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025-03-04</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Beta and Gamma Function, Differentiation under Integral sign and Rectification:</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3.2 Rectification of curve in Polar forms.</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025-03-06</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4.1 Introduction, Evaluation of Double Integrals. (Cartesian &amp; Polar).</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025-03-10</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F25" t="str">
+        <v>4.1 Introduction, Evaluation of Double Integrals. (Cartesian &amp; Polar).</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025-03-11</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F26" t="str">
+        <v>4.2 Changing the order of integration.</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025-03-17</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F27" t="str">
+        <v>4.3 Evaluation of double integrals over the given region. (Cartesian &amp; Polar).</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025-03-18</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F28" t="str">
+        <v>4.4 Evaluation of double integrals by changing to polar coordinates.</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025-03-20</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F29" t="str">
+        <v>4.5 Triple Integration: Introduction and evaluation of Triple Integrals using Cartesian coordinate system.</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2025-03-24</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F30" t="str">
+        <v>4.5 Triple Integration: Introduction and evaluation of Triple Integrals using Cartesian coordinate system.</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2025-03-25</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F31" t="str">
+        <v>4.6 Evaluation of triple integrals using cylindrical and spherical coordinate system</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2025-03-27</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Multiple Integrals:</v>
+      </c>
+      <c r="F32" t="str">
+        <v>4.6 Evaluation of triple integrals using cylindrical and spherical coordinate system</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2025-03-31</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Application Multiple Integrals:</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5.1 Application of double integrals to compute Area.</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Application Multiple Integrals:</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5.1 Application of double integrals to compute Area.</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025-04-03</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Application Multiple Integrals:</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5.2 Application of triple integrals to compute Volume</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2025-04-07</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Application Multiple Integrals:</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5.2 Application of triple integrals to compute Volume</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2025-04-08</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Numerical solution of ordinary differential equations of first order and first degree, Numerical Integration:</v>
+      </c>
+      <c r="F37" t="str">
+        <v>6.1 Numerical solution of ordinary differential equation using: (a) Eulers method</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2025-04-10</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Numerical solution of ordinary differential equations of first order and first degree, Numerical Integration:</v>
+      </c>
+      <c r="F38" t="str">
+        <v>6.1 Numerical solution of ordinary differential equation using: (b) Runge‐Kutta method of order four.</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2025-04-14</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Numerical solution of ordinary differential equations of first order and first degree, Numerical Integration:</v>
+      </c>
+      <c r="F39" t="str">
+        <v>6.2 Numerical integration by (a) Trapezoidal rule (b) Simpson’s 1/3rd rule</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2025-04-15</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>FEC201</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Applied Mathematics-II</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Numerical solution of ordinary differential equations of first order and first degree, Numerical Integration:</v>
+      </c>
+      <c r="F40" t="str">
+        <v>6.2 Numerical integration by (c) Simpson’s 3/8th rule (all without proof).</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,21 +1395,21 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>CO1-PO1</v>
+        <v>COS</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>CO3</v>
       </c>
       <c r="C5" t="str">
-        <v>Marks: 2</v>
+        <v>c3</v>
       </c>
       <c r="D5" t="str">
-        <v>Justification: c2</v>
+        <v>l1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>CO2-PO3</v>
+        <v>CO1-PO1</v>
       </c>
       <c r="B6" t="str">
         <v/>
@@ -570,12 +1418,40 @@
         <v>Marks: 2</v>
       </c>
       <c r="D6" t="str">
+        <v>Justification: c2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>CO2-PO3</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>Marks: 2</v>
+      </c>
+      <c r="D7" t="str">
         <v>Justification: 44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CO3-PO1</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>Marks: 3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Justification: s</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>